--- a/RFR_data.xlsx
+++ b/RFR_data.xlsx
@@ -2,49 +2,66 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKOLA\Vysoka skola\Inženýr\2.semestr\LDS\LDS_Strojove_uceni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE4D4C03-9767-46C5-8F08-79B2313D2CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA182E7-4E7A-43B5-8847-F28A1537F988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2570" yWindow="4110" windowWidth="19200" windowHeight="11170" xr2:uid="{1695704B-E74D-42DD-A66E-A05F51E35A45}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="List1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>scaler_name</t>
+  </si>
+  <si>
+    <t>n_estimators</t>
+  </si>
+  <si>
+    <t>max_depth</t>
+  </si>
+  <si>
+    <t>min_samples_split</t>
+  </si>
+  <si>
+    <t>min_samples_leaf</t>
+  </si>
+  <si>
+    <t>training_time</t>
+  </si>
+  <si>
+    <t>mse_loss</t>
+  </si>
+  <si>
+    <t>StandardScaler</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -55,7 +72,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -63,18 +80,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -87,7 +122,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -97,44 +132,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -161,32 +196,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -213,24 +230,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -242,173 +241,232 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3043794D-A7CB-4EBA-B05E-A088B2E35F87}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="18.6328125" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="6" max="6" width="20.36328125" customWidth="1"/>
+    <col min="7" max="7" width="26.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>35</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.87856626510620117</v>
+      </c>
+      <c r="G2">
+        <v>6.033212916494138E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/RFR_data.xlsx
+++ b/RFR_data.xlsx
@@ -1,72 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKOLA\Vysoka skola\Inženýr\2.semestr\LDS\LDS_Strojove_uceni\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA182E7-4E7A-43B5-8847-F28A1537F988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>scaler_name</t>
-  </si>
-  <si>
-    <t>n_estimators</t>
-  </si>
-  <si>
-    <t>max_depth</t>
-  </si>
-  <si>
-    <t>min_samples_split</t>
-  </si>
-  <si>
-    <t>min_samples_leaf</t>
-  </si>
-  <si>
-    <t>training_time</t>
-  </si>
-  <si>
-    <t>mse_loss</t>
-  </si>
-  <si>
-    <t>StandardScaler</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -81,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -405,65 +420,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="25.54296875" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" customWidth="1"/>
-    <col min="6" max="6" width="20.36328125" customWidth="1"/>
-    <col min="7" max="7" width="26.26953125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>scaler_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>n_estimators</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>max_depth</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>min_samples_split</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>min_samples_leaf</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>dataset_size</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>training_time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>mse_loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.05540561676025391</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.003542221382639806</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>35</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0.87856626510620117</v>
-      </c>
-      <c r="G2">
-        <v>6.033212916494138E-3</v>
+      <c r="F3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04936861991882324</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.007827074424132724</v>
       </c>
     </row>
   </sheetData>

--- a/RFR_data.xlsx
+++ b/RFR_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +527,214 @@
         <v>0.007827074424132724</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.243979215621948</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.00106223051636052</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>320.0513734817505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.004820706128632067</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1043.079631567001</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.006852550666638322</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>20000</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>487.0984542369843</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.007941115214381908</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>45.7075936794281</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.003805241690455808</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>200</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.627953290939331</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.002332677876297043</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>200</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4129679203033447</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.002213775202498263</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>200</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.516185998916626</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.001658260291570934</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/RFR_data.xlsx
+++ b/RFR_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
@@ -570,13 +570,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="G5" t="n">
-        <v>320.0513734817505</v>
+        <v>2.302295207977295</v>
       </c>
       <c r="H5" t="n">
-        <v>0.004820706128632067</v>
+        <v>3.260567561217538e-05</v>
       </c>
     </row>
     <row r="6">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
@@ -599,10 +599,10 @@
         <v>100000</v>
       </c>
       <c r="G6" t="n">
-        <v>1043.079631567001</v>
+        <v>320.0513734817505</v>
       </c>
       <c r="H6" t="n">
-        <v>0.006852550666638322</v>
+        <v>0.004820706128632067</v>
       </c>
     </row>
     <row r="7">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
@@ -622,13 +622,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="G7" t="n">
-        <v>487.0984542369843</v>
+        <v>1043.079631567001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.007941115214381908</v>
+        <v>0.006852550666638322</v>
       </c>
     </row>
     <row r="8">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -651,10 +651,10 @@
         <v>10000</v>
       </c>
       <c r="G8" t="n">
-        <v>45.7075936794281</v>
+        <v>487.0984542369843</v>
       </c>
       <c r="H8" t="n">
-        <v>0.003805241690455808</v>
+        <v>0.007941115214381908</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -677,10 +677,10 @@
         <v>10000</v>
       </c>
       <c r="G9" t="n">
-        <v>4.627953290939331</v>
+        <v>45.7075936794281</v>
       </c>
       <c r="H9" t="n">
-        <v>0.002332677876297043</v>
+        <v>0.003805241690455808</v>
       </c>
     </row>
     <row r="10">
@@ -700,13 +700,13 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4129679203033447</v>
+        <v>4.627953290939331</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002213775202498263</v>
+        <v>0.002332677876297043</v>
       </c>
     </row>
     <row r="11">
@@ -729,9 +729,35 @@
         <v>1000</v>
       </c>
       <c r="G11" t="n">
+        <v>0.4129679203033447</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.002213775202498263</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>200</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.516185998916626</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>0.001658260291570934</v>
       </c>
     </row>

--- a/RFR_data.xlsx
+++ b/RFR_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
@@ -495,10 +495,10 @@
         <v>10000</v>
       </c>
       <c r="G2" t="n">
-        <v>3.119747161865234</v>
+        <v>4.725103378295898</v>
       </c>
       <c r="H2" t="n">
-        <v>8.953976543508376e-06</v>
+        <v>8.768378854123981e-06</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
@@ -518,13 +518,13 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="G3" t="n">
-        <v>58.48119902610779</v>
+        <v>7.503835439682007</v>
       </c>
       <c r="H3" t="n">
-        <v>2.66910033090025e-05</v>
+        <v>8.863407032550012e-06</v>
       </c>
     </row>
     <row r="4">
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
@@ -547,10 +547,10 @@
         <v>10000</v>
       </c>
       <c r="G4" t="n">
-        <v>7.503835439682007</v>
+        <v>18.70738458633423</v>
       </c>
       <c r="H4" t="n">
-        <v>8.863407032550012e-06</v>
+        <v>8.91917666389344e-06</v>
       </c>
     </row>
     <row r="5">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
@@ -573,10 +573,10 @@
         <v>10000</v>
       </c>
       <c r="G5" t="n">
-        <v>3.815936326980591</v>
+        <v>4.796605825424194</v>
       </c>
       <c r="H5" t="n">
-        <v>1.129813574828779</v>
+        <v>0.002187759817048117</v>
       </c>
     </row>
     <row r="6">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
@@ -599,10 +599,10 @@
         <v>10000</v>
       </c>
       <c r="G6" t="n">
-        <v>4.725103378295898</v>
+        <v>3.119747161865234</v>
       </c>
       <c r="H6" t="n">
-        <v>8.768378854123981e-06</v>
+        <v>8.953976543508376e-06</v>
       </c>
     </row>
     <row r="7">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -651,10 +651,10 @@
         <v>100000</v>
       </c>
       <c r="G8" t="n">
-        <v>530.9713470935822</v>
+        <v>106.4083623886108</v>
       </c>
       <c r="H8" t="n">
-        <v>2.651395547000884e-05</v>
+        <v>2.537888500482685e-05</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -677,10 +677,10 @@
         <v>100000</v>
       </c>
       <c r="G9" t="n">
-        <v>237.6072864532471</v>
+        <v>530.9713470935822</v>
       </c>
       <c r="H9" t="n">
-        <v>2.728642970094406e-05</v>
+        <v>2.651395547000884e-05</v>
       </c>
     </row>
     <row r="10">
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -703,10 +703,10 @@
         <v>100000</v>
       </c>
       <c r="G10" t="n">
-        <v>106.4083623886108</v>
+        <v>58.48119902610779</v>
       </c>
       <c r="H10" t="n">
-        <v>2.537888500482685e-05</v>
+        <v>2.66910033090025e-05</v>
       </c>
     </row>
     <row r="11">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
@@ -726,13 +726,13 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>25000</v>
+        <v>100000</v>
       </c>
       <c r="G11" t="n">
-        <v>21.65767455101013</v>
+        <v>237.6072864532471</v>
       </c>
       <c r="H11" t="n">
-        <v>7.654655816760939e-05</v>
+        <v>2.728642970094406e-05</v>
       </c>
     </row>
     <row r="12">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
@@ -755,10 +755,10 @@
         <v>25000</v>
       </c>
       <c r="G12" t="n">
-        <v>270.1071422100067</v>
+        <v>107.2301676273346</v>
       </c>
       <c r="H12" t="n">
-        <v>7.242827926285998e-05</v>
+        <v>7.221197287312423e-05</v>
       </c>
     </row>
     <row r="13">
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
@@ -781,10 +781,10 @@
         <v>25000</v>
       </c>
       <c r="G13" t="n">
-        <v>107.2301676273346</v>
+        <v>270.1071422100067</v>
       </c>
       <c r="H13" t="n">
-        <v>7.221197287312423e-05</v>
+        <v>7.242827926285998e-05</v>
       </c>
     </row>
     <row r="14">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
@@ -830,13 +830,2275 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="G15" t="n">
-        <v>18.70738458633423</v>
+        <v>21.65767455101013</v>
       </c>
       <c r="H15" t="n">
-        <v>8.91917666389344e-06</v>
+        <v>7.654655816760939e-05</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>95</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>14200</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.652374744415283</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0005866870380685101</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>95</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>14800</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6.021113872528076</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0006798538232328279</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>95</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>14300</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5.612395763397217</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.000756380023266473</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>95</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>11400</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4.427793264389038</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0008034572382601817</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>95</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5.082728147506714</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0009524255958690155</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>95</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>14100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5.562994003295898</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0009862543950364471</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>95</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>14900</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5.890236616134644</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0009881413413019488</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>95</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>15100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5.98490571975708</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0009901550481785165</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>95</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>13700</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5.356157779693604</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.001002759782253744</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>95</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>15300</v>
+      </c>
+      <c r="G25" t="n">
+        <v>6.056790351867676</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.001005117653451902</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>95</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>15700</v>
+      </c>
+      <c r="G26" t="n">
+        <v>6.258978843688965</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.001013495989612995</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>95</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>13400</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.271394968032837</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.001054708833198227</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>95</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>11200</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4.305176734924316</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.001082150744478975</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>95</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>12900</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5.040568113327026</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.001113882935320716</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>95</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>14700</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.834508657455444</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.00112382942206037</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>95</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>11500</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4.387203454971313</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.001133253678160728</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>95</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>12200</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4.733283519744873</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.001153502931961715</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>95</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>12300</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4.763030052185059</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.001182717993845631</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>95</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>10800</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4.07498025894165</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.001206091015898168</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>95</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>14500</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5.76898193359375</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.001214504261481992</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>95</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>13800</v>
+      </c>
+      <c r="G36" t="n">
+        <v>5.455233573913574</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.001218388198175907</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>95</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>13200</v>
+      </c>
+      <c r="G37" t="n">
+        <v>5.128105878829956</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.001237844521964637</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>95</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="n">
+        <v>11300</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4.303143501281738</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.001256448704442486</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>95</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>15200</v>
+      </c>
+      <c r="G39" t="n">
+        <v>6.000381469726562</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.001297061611996941</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>95</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>10100</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3.81753134727478</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.001303739136901949</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>95</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G41" t="n">
+        <v>5.890887022018433</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.001328600408027874</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>95</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>12400</v>
+      </c>
+      <c r="G42" t="n">
+        <v>4.847301006317139</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.001346778747235578</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>95</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" t="n">
+        <v>13900</v>
+      </c>
+      <c r="G43" t="n">
+        <v>5.487972974777222</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.001364504181440372</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>95</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" t="n">
+        <v>15600</v>
+      </c>
+      <c r="G44" t="n">
+        <v>6.234566688537598</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.001375826243072404</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>95</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" t="n">
+        <v>12600</v>
+      </c>
+      <c r="G45" t="n">
+        <v>4.92409348487854</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.00139005471972932</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>95</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="n">
+        <v>10500</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3.969216823577881</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.00140488331149743</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>95</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="n">
+        <v>14600</v>
+      </c>
+      <c r="G47" t="n">
+        <v>5.810299396514893</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.001406280013987553</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>95</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" t="n">
+        <v>10200</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3.845215797424316</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.001414532038185494</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>95</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="n">
+        <v>2</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>14000</v>
+      </c>
+      <c r="G49" t="n">
+        <v>5.501802921295166</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.001461839704342013</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>95</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>11000</v>
+      </c>
+      <c r="G50" t="n">
+        <v>4.164458751678467</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.001464554405876846</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>95</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>11800</v>
+      </c>
+      <c r="G51" t="n">
+        <v>4.536577463150024</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.001496230230353548</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>95</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>15500</v>
+      </c>
+      <c r="G52" t="n">
+        <v>6.184152841567993</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.001528419052931357</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>95</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="n">
+        <v>2</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" t="n">
+        <v>13100</v>
+      </c>
+      <c r="G53" t="n">
+        <v>5.114772081375122</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.001589365350953803</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>95</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>12800</v>
+      </c>
+      <c r="G54" t="n">
+        <v>4.979214906692505</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.001625415129355257</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>95</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" t="n">
+        <v>13500</v>
+      </c>
+      <c r="G55" t="n">
+        <v>5.296722412109375</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.001628045317808051</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>95</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>13600</v>
+      </c>
+      <c r="G56" t="n">
+        <v>5.3277268409729</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.001721409309249679</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>95</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>13300</v>
+      </c>
+      <c r="G57" t="n">
+        <v>5.253913164138794</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.001726587479779301</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>95</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>10700</v>
+      </c>
+      <c r="G58" t="n">
+        <v>4.129273653030396</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.001739179871880327</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>95</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>12100</v>
+      </c>
+      <c r="G59" t="n">
+        <v>4.701234817504883</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.001846706633940213</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>95</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>14400</v>
+      </c>
+      <c r="G60" t="n">
+        <v>5.703088998794556</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.001881400896773042</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>95</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" t="n">
+        <v>11600</v>
+      </c>
+      <c r="G61" t="n">
+        <v>4.448763132095337</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.001904528229009023</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>95</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="n">
+        <v>2</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G62" t="n">
+        <v>4.903963565826416</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.001982691432587016</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>95</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="n">
+        <v>2</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>10900</v>
+      </c>
+      <c r="G63" t="n">
+        <v>4.133433103561401</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.002013608975122248</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>95</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="n">
+        <v>2</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>10300</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3.877016067504883</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.002017201189349286</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>95</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="n">
+        <v>2</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>15400</v>
+      </c>
+      <c r="G65" t="n">
+        <v>6.141604900360107</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.00201984914618656</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>95</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>12700</v>
+      </c>
+      <c r="G66" t="n">
+        <v>4.910040140151978</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.002047005926796279</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>90</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3.747652053833008</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.002113161287641461</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>95</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="n">
+        <v>2</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G68" t="n">
+        <v>3.735722541809082</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.0021220283812627</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>30</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1.283577680587769</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.002129259965227592</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>60</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2.63519549369812</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.002144901922787146</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>900</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G71" t="n">
+        <v>36.44867825508118</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.002146384389503079</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>870</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="n">
+        <v>2</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G72" t="n">
+        <v>35.49454283714294</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.00214931936543968</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>750</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="n">
+        <v>2</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G73" t="n">
+        <v>29.8806791305542</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.002151216447768685</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>810</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="n">
+        <v>2</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G74" t="n">
+        <v>32.60433077812195</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.002155822114086016</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>720</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="n">
+        <v>2</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1</v>
+      </c>
+      <c r="F75" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G75" t="n">
+        <v>33.51670384407043</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.002157755005042662</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>780</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="n">
+        <v>2</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G76" t="n">
+        <v>31.43727254867554</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.002157993708373087</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>840</v>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="n">
+        <v>2</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G77" t="n">
+        <v>34.13180088996887</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.002160659521007732</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>630</v>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="n">
+        <v>2</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G78" t="n">
+        <v>28.13822388648987</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.002161020169785064</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>690</v>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="n">
+        <v>2</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G79" t="n">
+        <v>32.57530975341797</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.0021625660369681</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>450</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="n">
+        <v>2</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G80" t="n">
+        <v>18.75629067420959</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.002164515117124771</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>660</v>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="n">
+        <v>2</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G81" t="n">
+        <v>30.63795804977417</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.002166441744355862</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>480</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>2</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G82" t="n">
+        <v>19.31519675254822</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.002166599131563348</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>540</v>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>2</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G83" t="n">
+        <v>23.34783387184143</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.002169900767801666</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>420</v>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>2</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G84" t="n">
+        <v>17.3182418346405</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.002171491617531879</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>390</v>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="n">
+        <v>2</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G85" t="n">
+        <v>16.01092934608459</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.002172883175939836</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>510</v>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="n">
+        <v>2</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1</v>
+      </c>
+      <c r="F86" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G86" t="n">
+        <v>20.84981513023376</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.002175631309722905</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>600</v>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="n">
+        <v>2</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G87" t="n">
+        <v>25.84743022918701</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.002176904371618121</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>570</v>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="n">
+        <v>2</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G88" t="n">
+        <v>24.35202693939209</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.002183495091281051</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>360</v>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="n">
+        <v>2</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1</v>
+      </c>
+      <c r="F89" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G89" t="n">
+        <v>14.74224448204041</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.002183888608252122</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>330</v>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="n">
+        <v>2</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G90" t="n">
+        <v>13.88209581375122</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.002187049496614188</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>270</v>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="n">
+        <v>2</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G91" t="n">
+        <v>11.00013971328735</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.00220924815991042</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>180</v>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="n">
+        <v>2</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G92" t="n">
+        <v>7.449204921722412</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.002213667058926668</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>150</v>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="n">
+        <v>2</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G93" t="n">
+        <v>6.202265739440918</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.002214538308689665</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>240</v>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="n">
+        <v>2</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G94" t="n">
+        <v>9.884933710098267</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.002230629858264167</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>210</v>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="n">
+        <v>2</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G95" t="n">
+        <v>8.635012865066528</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.002234026992112283</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>95</v>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="n">
+        <v>2</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" t="n">
+        <v>10600</v>
+      </c>
+      <c r="G96" t="n">
+        <v>4.03286337852478</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.002240057725663808</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="n">
+        <v>2</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
+      <c r="F97" t="n">
+        <v>11100</v>
+      </c>
+      <c r="G97" t="n">
+        <v>4.231189966201782</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.002444769578218726</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>95</v>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="n">
+        <v>2</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>10400</v>
+      </c>
+      <c r="G98" t="n">
+        <v>3.926620960235596</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.002768825008252647</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>95</v>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="n">
+        <v>2</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1</v>
+      </c>
+      <c r="F99" t="n">
+        <v>11900</v>
+      </c>
+      <c r="G99" t="n">
+        <v>4.560422897338867</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.002791825971867301</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>95</v>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="n">
+        <v>2</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" t="n">
+        <v>11700</v>
+      </c>
+      <c r="G100" t="n">
+        <v>4.510010004043579</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.002975773372309988</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>95</v>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="n">
+        <v>2</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1</v>
+      </c>
+      <c r="F101" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G101" t="n">
+        <v>4.659665822982788</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.003323655242496641</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="n">
+        <v>2</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G102" t="n">
+        <v>3.815936326980591</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1.129813574828779</v>
       </c>
     </row>
   </sheetData>
